--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -1,31 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55BB9E4-7B12-4746-8566-08D25B876A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>4-20ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +405,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>49.9*2</f>
+        <v>99.8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <f>C2*B2/1000</f>
+        <v>0.3992</v>
+      </c>
+      <c r="F2">
+        <f>D2*B2/1000</f>
+        <v>1.996</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2/(F2-E2)</f>
+        <v>0.62625250501002006</v>
+      </c>
+      <c r="J2">
+        <f>-I2*E2</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f>I2*F2+J2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.19</v>
+      </c>
+      <c r="C8">
+        <v>2.21</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <f>D8*(B8*1000/(C8*2-B8))/(D8-(B8*1000/(C8*2-B8)))</f>
+        <v>111.98428290766211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55BB9E4-7B12-4746-8566-08D25B876A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44373BE7-50C8-405C-A578-0168DEBBD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据协议" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="主控板与设备协议" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>4-20ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +84,306 @@
   </si>
   <si>
     <t>电阻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt_payload_u.status[DEV_STATUS_INDEX]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位宽（bit）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地暖机故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障位定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应位为1代表有故障</t>
+  </si>
+  <si>
+    <t>对应位为1代表有故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值范围0-15；
+0代表无故障；
+1-15代表15种故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板与云服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传本地设备状态，接收云端指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板OTA升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备---&gt;云：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发布1个主题，暂定为MPUB/devid,devid为控制板唯一标识号，控制板通过该主题实时发送本地设备状态；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云---&gt;设备：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备定订阅1个主题，暂定为MSUB/devid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>故障结构（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备---&gt;云：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       升级机制：
+              1、控制板主动get云端固件版本号，如果版本不一致，进入升级模式；
+              2、控制板主动get请求，云服务先返回 ota固件的总长度；
+              3、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)
+              4、crc校验错误，控制板会发送post请求，返回“data crc error”;
+              5、控制板继续get请求，云端根据有无返回值判断发送下一帧数据，还是重发上一帧数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传云端数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：{
+    "设备ID": ”12111111111111111111111178787897“,
+    "运行数据": {
+        "出水温度": 45,
+        "回水温度": 26,
+        "泵前压力": 0.5,
+        "泵后压力": 0.5,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": 4
+    },
+    "设备参数": {
+        "版本号": V3.0.1,
+        "设置出水温度": 45,
+        "设置室内温度": 23,
+        "数据上传周期": 10
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务端下发数据：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+   "设备ID": "12111111111111111111111178787897",
+   "设备控制": {
+               "升级": 1,
+               "重启": 1,
+               "机组开关机": 0,
+               "设置出水温度": 45,
+               "设置室内温度": 23,
+               "数据上传周期": 20
+        }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +401,31 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -124,8 +452,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -141,6 +484,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78209</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>160693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB95CB95-A98F-E0E5-5DA9-BA578306D483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1682750"/>
+          <a:ext cx="9323809" cy="9857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCEB961-FADA-4E0A-AA3D-6D7617AC4032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="8750300"/>
+          <a:ext cx="927100" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -523,4 +981,202 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="364" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AB449-856B-4BEF-8A0C-9B5A628FA79A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BE9F0A-F1BA-47B4-ACC1-0F26B26FF142}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44373BE7-50C8-405C-A578-0168DEBBD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A063E-D9D1-471D-91DF-CC1FBE8A7F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,54 +189,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备---&gt;云：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">发布1个主题，暂定为MPUB/devid,devid为控制板唯一标识号，控制板通过该主题实时发送本地设备状态；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>云---&gt;设备：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备定订阅1个主题，暂定为MSUB/devid</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>故障结构（</t>
     </r>
     <r>
@@ -290,6 +242,77 @@
               3、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)
               4、crc校验错误，控制板会发送post请求，返回“data crc error”;
               5、控制板继续get请求，云端根据有无返回值判断发送下一帧数据，还是重发上一帧数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备---&gt;云：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发布1个主题，暂定为MPUB/devid,devid为控制板唯一标识号，控制板通过该主题实时发送本地设备状态；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云---&gt;设备：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设备定订阅1个主题，暂定为MSUB/devid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云---&gt;设备：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备定订阅1个主题，暂定为MSUB/devid/temperature</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,7 +395,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{
+      <t xml:space="preserve">{
    "设备ID": "12111111111111111111111178787897",
    "设备控制": {
                "升级": 1,
@@ -381,8 +404,44 @@
                "设置出水温度": 45,
                "设置室内温度": 23,
                "数据上传周期": 20
-        }
-}</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务端下发数据（周期下发）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：{
+   "设备ID": "12111111111111111111111178787897",
+   "设备控制": {
+               "温度1": 1,
+               "温度2": 1,
+               "温度3": 1,                
+               "温度4": 1,
+               "温度5": 1,
+               "温度6": 1,    
+               "温度7": 1,                
+               "温度8": 1,
+               "温度9": 1,
+               "温度10": 1,    
+     }
+}
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -468,6 +527,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1077,7 @@
     <col min="8" max="8" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1025,124 +1099,139 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="364" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C32" s="5">
         <v>32</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="E28" s="1" t="s">
+    <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AB449-856B-4BEF-8A0C-9B5A628FA79A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A063E-D9D1-471D-91DF-CC1FBE8A7F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878491B3-19C2-4BEE-BBAF-B310C768703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,12 +522,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -542,6 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1118,23 +1118,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1162,21 +1162,21 @@
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="9">
         <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1193,9 +1193,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1210,9 +1210,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="E34" s="1" t="s">
         <v>27</v>
       </c>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878491B3-19C2-4BEE-BBAF-B310C768703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D08F269-7D03-4DE3-A6F8-A56ED9C40814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="数据协议" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="主控板与设备协议" sheetId="3" r:id="rId4"/>
+    <sheet name="ota流程" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="主控板与设备协议" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>4-20ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +444,26 @@
 }
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次get请求版本号，返回值：{V1.0.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来get请求读固件数据，返回值：DATA,1024个有效数据(不满1024为最后一帧数据)+2crc\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果步骤3校验错误，执行重发机制，执行步骤4，否则返回步骤2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器会收到post请求，接收到data crc error\r\n，表示上一帧数据有错误需要重发，然后返回步骤2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次请求返回固件总得字节数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1239,6 +1260,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9513A070-CC3E-439B-9DD2-7EFE74079694}">
+  <dimension ref="B5:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AB449-856B-4BEF-8A0C-9B5A628FA79A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1255,13 +1336,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BE9F0A-F1BA-47B4-ACC1-0F26B26FF142}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D08F269-7D03-4DE3-A6F8-A56ED9C40814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E569D-13CA-46E0-83C7-0D6C7AC41C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>4-20ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一次get请求版本号，返回值：{V1.0.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来get请求读固件数据，返回值：DATA,1024个有效数据(不满1024为最后一帧数据)+2crc\r\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,7 +459,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二次请求返回固件总得字节数</t>
+    <t>第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址，端口号}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,16 +1257,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9513A070-CC3E-439B-9DD2-7EFE74079694}">
-  <dimension ref="B5:C9"/>
+  <dimension ref="B5:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1278,20 +1274,20 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -1299,18 +1295,10 @@
     </row>
     <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E569D-13CA-46E0-83C7-0D6C7AC41C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE217E-9AB5-4BAC-B40E-834CFD6989CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>4-20ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,159 @@
   </si>
   <si>
     <t>第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址，端口号}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Dev ID": "866289037465624",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Out Tem": "45",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "In Tem": "26",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Front Pressure": "0.5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "After Pressure": "0.5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Status": "4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Dev Params": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Version": "V3.0.1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Set Out Tem": "45",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Set In Tem": "23",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Upload Period(second)": "10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>dev_pub_866289037465624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(序列号为设备的devid)，服务端---&gt;设备端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_sub_temp_866289037465624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(序列号为设备的devid),服务端---&gt;设备周期下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_sub_ctrl_866289037465624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(序列号为设备的devid),设备---&gt;服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_pub_serilNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备订阅消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度传感器发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serilNo为温度传感器序列号，根据归属地，与设备绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备---&gt;服务端(周期性上传)
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": "45",
+        "In Tem": "26",
+        "Front Pressure": "0.5",
+        "After Pressure": "0.5",
+        "Status": "4"
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": "45",
+        "Set In Tem": "23",
+        "Upload Period(second)": "10"
+    }
+}
+服务端---&gt;设备（周期下发）
+{
+   "Dev ID":  "866289037465624",
+   "Room Temp": {
+               "Room 1 Temp": "15",
+               "Room 2 Temp": "18",
+               "Room 3 Temp": "16",                
+               "Room 4 Temp": "17",
+               "Room 5 Temp": "15",
+               "Room 6 Temp": "13",    
+               "Room 7 Temp": "12",
+               "Room 8 Temp": "21",
+               "Room 9 Temp": "20",  
+               "Room 10 Temp": "15" 
+     }
+}
+服务端---&gt;设备
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Updat Frimware": "1",
+               "Reboot Dev": "1",
+               "Power ctrl": "1",                
+               "Set Out Temp": "45",
+               "Set Room Temp": "23",
+               "Set Upload Period(second)": "13"
+     }
+}
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": "15"
+     }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Status Daa": {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1240,7 @@
     <col min="1" max="1" width="22.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="26.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
@@ -1145,28 +1298,100 @@
       <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="365" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1241,6 +1466,58 @@
       </c>
       <c r="H34" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1252,6 +1529,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1259,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9513A070-CC3E-439B-9DD2-7EFE74079694}">
   <dimension ref="B5:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE217E-9AB5-4BAC-B40E-834CFD6989CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570956E8-737C-410E-95F9-12C4ACA5A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570956E8-737C-410E-95F9-12C4ACA5A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E221F-B8E3-4636-9ECB-706CD918E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="数据协议" sheetId="2" r:id="rId2"/>
-    <sheet name="ota流程" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="主控板与设备协议" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="需求" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>4-20ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,29 +446,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接下来get请求读固件数据，返回值：DATA,1024个有效数据(不满1024为最后一帧数据)+2crc\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果步骤3校验错误，执行重发机制，执行步骤4，否则返回步骤2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器会收到post请求，接收到data crc error\r\n，表示上一帧数据有错误需要重发，然后返回步骤2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址，端口号}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    "Dev ID": "866289037465624",</t>
   </si>
   <si>
     <t xml:space="preserve">        "Out Tem": "45",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "In Tem": "26",</t>
   </si>
   <si>
     <t xml:space="preserve">        "Front Pressure": "0.5",</t>
@@ -615,12 +595,247 @@
     <t xml:space="preserve">    "Status Daa": {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总体架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "In Tem": "26",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具体消息格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": "15"
+     }
+}
+控制板---&gt;服务端(周期性上传)
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": "45",
+        "In Tem": "26",
+        "Front Pressure": "0.5",
+        "After Pressure": "0.5",
+        "Status": "4"
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": "45",
+        "Set In Tem": "23",
+        "Upload Period(second)": "10"
+    }
+}
+服务端---&gt;控制板（周期下发）
+{
+   "Dev ID":  "866289037465624",
+   "Room Temp": {
+               "Room 1 Temp": "15",
+               "Room 2 Temp": "18",
+               "Room 3 Temp": "16",                
+               "Room 4 Temp": "17",
+               "Room 5 Temp": "15",
+               "Room 6 Temp": "13",    
+               "Room 7 Temp": "12",
+               "Room 8 Temp": "21",
+               "Room 9 Temp": "20",  
+               "Room 10 Temp": "15" 
+     }
+}
+服务端---&gt;控制板
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Updat Frimware": "1",
+               "Reboot Dev": "1",
+               "Power ctrl": "1",                
+               "Set Out Temp": "45",
+               "Set Room Temp": "23",
+               "Set Upload Period(second)": "13"
+     }
+}
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": "15"
+     }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA升级流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
+例如{v1.0.0,33,31.106.169.131/firmware/}
+2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板订阅消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小程序：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、用户权限管理，可以对用户进行权限的管理，例如可以增删改查用户，可以对用户的功能权限进行管理，例如只有查询功能，或者修改功能
+2、数据展示功能，对现场数据可以进行查询和展示
+3、控制功能，通过小程序可以对现场设备进行控制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">本地设备的交互（本地端功能开发已经基本完成）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、现场室内会有采集的温度的传感器，传感器通过mqtt的形式将温度周期性的上传到云端
+2、现场控制板与服务端通过mqtt进行数据交互，包括本地设备状态，运行参数的周期上传，服务端下发控制指令到设备
+3、ota升级功能，本地控制板通过http方式获取固件，进行远程升级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">云端需求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、满足小程序的基本服务部署
+2、满足与本地设备交互需求
+3、设备管理功能，温度传感器与控制板存在从属绑定关系
+4、用户管理功能，用户权限管理，功能管理
+5、稳定性要求：服务部署应该有保障健壮性机制，例如服务的故障报警、自恢复功能，数据库自动备份机制等
+6、现场状态异常短信报警功能
+7、历史数据存储管理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +875,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -706,6 +939,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,6 +1080,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1420413</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05467678-1D12-6BEE-7471-8A6E5C8042C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2129118" y="1464234"/>
+          <a:ext cx="8129001" cy="3607271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1231,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1588,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1311,7 +1600,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1326,72 +1615,72 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1404,21 +1693,21 @@
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1435,9 +1724,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1452,9 +1741,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,54 +1759,54 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1534,58 +1823,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9513A070-CC3E-439B-9DD2-7EFE74079694}">
-  <dimension ref="B5:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="61.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AB449-856B-4BEF-8A0C-9B5A628FA79A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1602,15 +1839,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BE9F0A-F1BA-47B4-ACC1-0F26B26FF142}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77CCC1-4EFB-43D9-9367-A192BD7E1B00}">
+  <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="90.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.9140625" customWidth="1"/>
+    <col min="6" max="6" width="29.4140625" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:4" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D45" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E221F-B8E3-4636-9ECB-706CD918E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C936922A-A2F9-45F0-9DCD-4B4958AD89B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,6 +604,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>OTA升级流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
+例如{v1.0.0,33,31.106.169.131/firmware/}
+2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板订阅消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小程序：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、用户权限管理，可以对用户进行权限的管理，例如可以增删改查用户，可以对用户的功能权限进行管理，例如只有查询功能，或者修改功能
+2、数据展示功能，对现场数据可以进行查询和展示
+3、控制功能，通过小程序可以对现场设备进行控制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">本地设备的交互（本地端功能开发已经基本完成）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、现场室内会有采集的温度的传感器，传感器通过mqtt的形式将温度周期性的上传到云端
+2、现场控制板与服务端通过mqtt进行数据交互，包括本地设备状态，运行参数的周期上传，服务端下发控制指令到设备
+3、ota升级功能，本地控制板通过http方式获取固件，进行远程升级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">云端需求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、满足小程序的基本服务部署
+2、满足与本地设备交互需求
+3、设备管理功能，温度传感器与控制板存在从属绑定关系
+4、用户管理功能，用户权限管理，功能管理
+5、稳定性要求：服务部署应该有保障健壮性机制，例如服务的故障报警、自恢复功能，数据库自动备份机制等
+6、现场状态异常短信报警功能
+7、历史数据存储管理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -641,6 +784,7 @@
         "Front Pressure": "0.5",
         "After Pressure": "0.5",
         "Status": "4"
+         “air pump_status”:"8"
     },
     "Dev Params": {
         "Version": "V3.0.1",
@@ -684,149 +828,6 @@
                "Temp": "15"
      }
 }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA升级流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
-例如{v1.0.0,33,31.106.169.131/firmware/}
-2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQTT主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板发布消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板订阅消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基本需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小程序：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1、用户权限管理，可以对用户进行权限的管理，例如可以增删改查用户，可以对用户的功能权限进行管理，例如只有查询功能，或者修改功能
-2、数据展示功能，对现场数据可以进行查询和展示
-3、控制功能，通过小程序可以对现场设备进行控制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">本地设备的交互（本地端功能开发已经基本完成）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、现场室内会有采集的温度的传感器，传感器通过mqtt的形式将温度周期性的上传到云端
-2、现场控制板与服务端通过mqtt进行数据交互，包括本地设备状态，运行参数的周期上传，服务端下发控制指令到设备
-3、ota升级功能，本地控制板通过http方式获取固件，进行远程升级
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">云端需求
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、满足小程序的基本服务部署
-2、满足与本地设备交互需求
-3、设备管理功能，温度传感器与控制板存在从属绑定关系
-4、用户管理功能，用户权限管理，功能管理
-5、稳定性要求：服务部署应该有保障健壮性机制，例如服务的故障报警、自恢复功能，数据库自动备份机制等
-6、现场状态异常短信报警功能
-7、历史数据存储管理
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1844,7 +1845,7 @@
   <dimension ref="D7:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1862,15 +1863,15 @@
     </row>
     <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>61</v>
@@ -1885,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1896,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1907,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1923,12 +1924,12 @@
     </row>
     <row r="45" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D45" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="42" x14ac:dyDescent="0.3">
       <c r="D46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C936922A-A2F9-45F0-9DCD-4B4958AD89B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652001E7-D405-4838-99F0-23E62B022A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">    "Status Daa": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "In Tem": "26",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA升级流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
+例如{v1.0.0,33,31.106.169.131/firmware/}
+2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板订阅消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小程序：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、用户权限管理，可以对用户进行权限的管理，例如可以增删改查用户，可以对用户的功能权限进行管理，例如只有查询功能，或者修改功能
+2、数据展示功能，对现场数据可以进行查询和展示
+3、控制功能，通过小程序可以对现场设备进行控制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">本地设备的交互（本地端功能开发已经基本完成）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、现场室内会有采集的温度的传感器，传感器通过mqtt的形式将温度周期性的上传到云端
+2、现场控制板与服务端通过mqtt进行数据交互，包括本地设备状态，运行参数的周期上传，服务端下发控制指令到设备
+3、ota升级功能，本地控制板通过http方式获取固件，进行远程升级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">云端需求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、满足小程序的基本服务部署
+2、满足与本地设备交互需求
+3、设备管理功能，温度传感器与控制板存在从属绑定关系
+4、用户管理功能，用户权限管理，功能管理
+5、稳定性要求：服务部署应该有保障健壮性机制，例如服务的故障报警、自恢复功能，数据库自动备份机制等
+6、现场状态异常短信报警功能
+7、历史数据存储管理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体消息格式
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": 15
+     }
+}
+控制板---&gt;服务端(周期性上传)
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": 45,
+        "In Tem": 26,
+        "Front Pressure": 0.5,
+        "After Pressure": 0.5,
+        "Status": 4,
+         "air pump_status":8
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": 45,
+        "Set In Tem": 23,
+        "Upload Period(second)": 10
+    }
+}
+服务端---&gt;控制板（周期下发）
+{
+   "Dev ID":  "866289037465624",
+   "Room Temp": {
+               "Room 1 Temp": 15,
+               "Room 2 Temp": 18,
+               "Room 3 Temp": 16,                
+               "Room 4 Temp": 17,
+               "Room 5 Temp": 15,
+               "Room 6 Temp": 13,    
+               "Room 7 Temp": 12,
+               "Room 8 Temp": 21,
+               "Room 9 Temp": 20,  
+               "Room 10 Temp": 15 
+     }
+}
+服务端---&gt;控制板
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Updat Frimware": 1,
+               "Reboot Dev": 1,
+               "Power ctrl": 1,                
+               "Set Out Temp": 45,
+               "Set Room Temp": 23,
+               "Set Upload Period(second)": 13
+     }
+}
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": 15
+     }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设备---&gt;服务端(周期性上传)
 {
     "Dev ID": "866289037465624",
@@ -557,20 +776,9 @@
 服务端---&gt;设备（周期下发）
 {
    "Dev ID":  "866289037465624",
-   "Room Temp": {
-               "Room 1 Temp": "15",
-               "Room 2 Temp": "18",
-               "Room 3 Temp": "16",                
-               "Room 4 Temp": "17",
-               "Room 5 Temp": "15",
-               "Room 6 Temp": "13",    
-               "Room 7 Temp": "12",
-               "Room 8 Temp": "21",
-               "Room 9 Temp": "20",  
-               "Room 10 Temp": "15" 
-     }
-}
-服务端---&gt;设备
+  "Room Temp": [12, 22, 23, 25]，
+  "Room Humid": [12, 22, 23, 25]
+}服务端---&gt;设备
 {
    "Dev ID":  "866289037465624",
    "Dev Ctrl": {
@@ -589,246 +797,6 @@
                "Temp": "15"
      }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Status Daa": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        "In Tem": "26",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA升级流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
-例如{v1.0.0,33,31.106.169.131/firmware/}
-2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQTT主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板发布消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板订阅消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基本需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小程序：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1、用户权限管理，可以对用户进行权限的管理，例如可以增删改查用户，可以对用户的功能权限进行管理，例如只有查询功能，或者修改功能
-2、数据展示功能，对现场数据可以进行查询和展示
-3、控制功能，通过小程序可以对现场设备进行控制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">本地设备的交互（本地端功能开发已经基本完成）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、现场室内会有采集的温度的传感器，传感器通过mqtt的形式将温度周期性的上传到云端
-2、现场控制板与服务端通过mqtt进行数据交互，包括本地设备状态，运行参数的周期上传，服务端下发控制指令到设备
-3、ota升级功能，本地控制板通过http方式获取固件，进行远程升级
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">云端需求
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、满足小程序的基本服务部署
-2、满足与本地设备交互需求
-3、设备管理功能，温度传感器与控制板存在从属绑定关系
-4、用户管理功能，用户权限管理，功能管理
-5、稳定性要求：服务部署应该有保障健壮性机制，例如服务的故障报警、自恢复功能，数据库自动备份机制等
-6、现场状态异常短信报警功能
-7、历史数据存储管理
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>具体消息格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-温度传感器---&gt;服务端
-{
-   "Sensor ID":  "866289037465624",
-   "Room Temp": {
-               "Temp": "15"
-     }
-}
-控制板---&gt;服务端(周期性上传)
-{
-    "Dev ID": "866289037465624",
-    "Status Data": {
-        "Out Tem": "45",
-        "In Tem": "26",
-        "Front Pressure": "0.5",
-        "After Pressure": "0.5",
-        "Status": "4"
-         “air pump_status”:"8"
-    },
-    "Dev Params": {
-        "Version": "V3.0.1",
-        "Set Out Tem": "45",
-        "Set In Tem": "23",
-        "Upload Period(second)": "10"
-    }
-}
-服务端---&gt;控制板（周期下发）
-{
-   "Dev ID":  "866289037465624",
-   "Room Temp": {
-               "Room 1 Temp": "15",
-               "Room 2 Temp": "18",
-               "Room 3 Temp": "16",                
-               "Room 4 Temp": "17",
-               "Room 5 Temp": "15",
-               "Room 6 Temp": "13",    
-               "Room 7 Temp": "12",
-               "Room 8 Temp": "21",
-               "Room 9 Temp": "20",  
-               "Room 10 Temp": "15" 
-     }
-}
-服务端---&gt;控制板
-{
-   "Dev ID":  "866289037465624",
-   "Dev Ctrl": {
-               "Updat Frimware": "1",
-               "Reboot Dev": "1",
-               "Power ctrl": "1",                
-               "Set Out Temp": "45",
-               "Set Room Temp": "23",
-               "Set Upload Period(second)": "13"
-     }
-}
-温度传感器---&gt;服务端
-{
-   "Sensor ID":  "866289037465624",
-   "Room Temp": {
-               "Temp": "15"
-     }
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -947,6 +915,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1616,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1626,7 +1597,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1694,21 +1665,21 @@
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1725,9 +1696,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1742,9 +1713,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77CCC1-4EFB-43D9-9367-A192BD7E1B00}">
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1858,20 +1829,20 @@
   <sheetData>
     <row r="7" spans="4:4" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D7" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D38" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>61</v>
@@ -1886,7 +1857,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1897,7 +1868,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1908,7 +1879,7 @@
         <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.3">
@@ -1924,12 +1895,12 @@
     </row>
     <row r="45" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D45" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="42" x14ac:dyDescent="0.3">
       <c r="D46" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652001E7-D405-4838-99F0-23E62B022A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,182 +30,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>4-20ma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电流1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电流2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电压1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电压2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>压力0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>压力1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>斜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>截距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pt100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电阻1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mqtt_payload_u.status[DEV_STATUS_INDEX]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位宽（bit）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地暖机故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障位定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应位为1代表有故障</t>
-  </si>
-  <si>
-    <t>对应位为1代表有故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值范围0-15；
-0代表无故障；
-1-15代表15种故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交互方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实现功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制板与云服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MQTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上传本地设备状态，接收云端指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制板OTA升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具体格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>故障结构（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运行状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -221,7 +101,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,41 +111,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-       升级机制：
-              1、控制板主动get云端固件版本号，如果版本不一致，进入升级模式；
-              2、控制板主动get请求，云服务先返回 ota固件的总长度；
-              3、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)
-              4、crc校验错误，控制板会发送post请求，返回“data crc error”;
-              5、控制板继续get请求，云端根据有无返回值判断发送下一帧数据，还是重发上一帧数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发布1个主题，暂定为MPUB/devid,devid为控制板唯一标识号，控制板通过该主题实时发送本地设备状态；
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备---&gt;云：</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云---&gt;设备：</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">发布1个主题，暂定为MPUB/devid,devid为控制板唯一标识号，控制板通过该主题实时发送本地设备状态；
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设备定订阅1个主题，暂定为MSUB/devid
 </t>
     </r>
     <r>
@@ -275,7 +145,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,55 +155,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设备定订阅1个主题，暂定为MSUB/devid
-</t>
-    </r>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备定订阅1个主题，暂定为MSUB/devid/temperature</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>云---&gt;设备：</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传云端数据</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备定订阅1个主题，暂定为MSUB/devid/temperature</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传云端数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>：{
@@ -351,7 +195,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -362,7 +205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">": 4
@@ -381,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,7 +234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">{
@@ -412,7 +254,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,7 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">：{
@@ -443,15 +284,92 @@
 }
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备---&gt;服务端(周期性上传)
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": "45",
+        "In Tem": "26",
+        "Front Pressure": "0.5",
+        "After Pressure": "0.5",
+        "Status": "4"
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": "45",
+        "Set In Tem": "23",
+        "Upload Period(second)": "10"
+    }
+}
+服务端---&gt;设备（周期下发）
+{
+   "Dev ID":  "866289037465624",
+  "Room Temp": [12, 22, 23, 25]，
+  "Room Humid": [12, 22, 23, 25]
+}服务端---&gt;设备
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Updat Frimware": 1,
+               "Reboot Dev": 1,
+               "Power ctrl": 1,                
+               "Set Out Temp": 45,
+               "Set Room Temp": 23,
+               "Set Upload Period(second)": 13
+     }
+}
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": "15"
+     }
+}</t>
   </si>
   <si>
     <t xml:space="preserve">    "Dev ID": "866289037465624",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备---&gt;云：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       升级机制：
+              1、控制板主动get云端固件版本号，如果版本不一致，进入升级模式；
+              2、控制板主动get请求，云服务先返回 ota固件的总长度；
+              3、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)
+              4、crc校验错误，控制板会发送post请求，返回“data crc error”;
+              5、控制板继续get请求，云端根据有无返回值判断发送下一帧数据，还是重发上一帧数据</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Status Daa": {</t>
+  </si>
+  <si>
     <t xml:space="preserve">        "Out Tem": "45",</t>
   </si>
   <si>
+    <t xml:space="preserve">        "In Tem": "26",</t>
+  </si>
+  <si>
     <t xml:space="preserve">        "Front Pressure": "0.5",</t>
   </si>
   <si>
@@ -485,90 +403,125 @@
     <t>}</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>位宽（bit）</t>
+  </si>
+  <si>
+    <t>故障位定义</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>故障结构（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>mqtt_payload_u.status[DEV_STATUS_INDEX]</t>
+  </si>
+  <si>
+    <t>地暖机故障</t>
+  </si>
+  <si>
+    <t>压力故障</t>
+  </si>
+  <si>
+    <t>温度故障</t>
+  </si>
+  <si>
+    <t>di故障</t>
+  </si>
+  <si>
+    <t>31-28</t>
+  </si>
+  <si>
+    <t>27-20</t>
+  </si>
+  <si>
+    <t>19-8</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>取值范围0-15；
+0代表无故障；
+1-15代表15种故障</t>
+  </si>
+  <si>
+    <t>对应位为1代表有故障</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>dev_pub_866289037465624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(序列号为设备的devid),设备---&gt;服务端</t>
+  </si>
+  <si>
+    <t>设备发布消息</t>
+  </si>
+  <si>
+    <t>dev_sub_ctrl_866289037465624</t>
   </si>
   <si>
     <t>(序列号为设备的devid)，服务端---&gt;设备端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备订阅消息</t>
   </si>
   <si>
     <t>dev_sub_temp_866289037465624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(序列号为设备的devid),服务端---&gt;设备周期下发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_sub_ctrl_866289037465624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(序列号为设备的devid),设备---&gt;服务端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sensor_pub_serilNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备发布消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备订阅消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serilNo为温度传感器序列号，根据归属地，与设备绑定</t>
   </si>
   <si>
     <t>温度传感器发布消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serilNo为温度传感器序列号，根据归属地，与设备绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Status Daa": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总体架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        "In Tem": "26",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA升级流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
-例如{v1.0.0,33,31.106.169.131/firmware/}
-2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQTT主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板发布消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制板订阅消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -577,7 +530,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +540,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -600,7 +552,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,7 +562,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -626,7 +577,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,7 +588,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,7 +602,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,7 +613,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,13 +630,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具体消息格式
@@ -753,69 +699,55 @@
                "Temp": 15
      }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备---&gt;服务端(周期性上传)
-{
-    "Dev ID": "866289037465624",
-    "Status Data": {
-        "Out Tem": "45",
-        "In Tem": "26",
-        "Front Pressure": "0.5",
-        "After Pressure": "0.5",
-        "Status": "4"
-    },
-    "Dev Params": {
-        "Version": "V3.0.1",
-        "Set Out Tem": "45",
-        "Set In Tem": "23",
-        "Upload Period(second)": "10"
-    }
-}
-服务端---&gt;设备（周期下发）
-{
-   "Dev ID":  "866289037465624",
-  "Room Temp": [12, 22, 23, 25]，
-  "Room Humid": [12, 22, 23, 25]
-}服务端---&gt;设备
-{
-   "Dev ID":  "866289037465624",
-   "Dev Ctrl": {
-               "Updat Frimware": "1",
-               "Reboot Dev": "1",
-               "Power ctrl": "1",                
-               "Set Out Temp": "45",
-               "Set Room Temp": "23",
-               "Set Upload Period(second)": "13"
-     }
-}
-温度传感器---&gt;服务端
-{
-   "Sensor ID":  "866289037465624",
-   "Room Temp": {
-               "Temp": "15"
-     }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT主题</t>
+  </si>
+  <si>
+    <t>控制板发布消息</t>
+  </si>
+  <si>
+    <t>控制板订阅消息</t>
+  </si>
+  <si>
+    <t>OTA升级流程</t>
+  </si>
+  <si>
+    <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
+例如{v1.0.0,33,31.106.169.131/firmware/}
+2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -824,7 +756,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -832,25 +763,151 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,20 +915,212 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -879,71 +1128,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -959,27 +1494,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB95CB95-A98F-E0E5-5DA9-BA578306D483}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1682750"/>
-          <a:ext cx="9323809" cy="9857143"/>
+          <a:off x="0" y="1659890"/>
+          <a:ext cx="8719185" cy="9717405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,21 +1530,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCEB961-FADA-4E0A-AA3D-6D7617AC4032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7219950" y="8750300"/>
-          <a:ext cx="927100" cy="2876550"/>
+          <a:off x="6788150" y="8625840"/>
+          <a:ext cx="840740" cy="2835910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1067,34 +1590,28 @@
       <xdr:rowOff>29881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1420413</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>51269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05467678-1D12-6BEE-7471-8A6E5C8042C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2129118" y="1464234"/>
-          <a:ext cx="8129001" cy="3607271"/>
+          <a:off x="2008505" y="1546225"/>
+          <a:ext cx="7386955" cy="3526155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,7 +1666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1184,7 +1701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1358,29 +1875,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2">
         <f>49.9*2</f>
         <v>99.8</v>
@@ -1439,14 +1951,14 @@
       </c>
       <c r="I2">
         <f>H2/(F2-E2)</f>
-        <v>0.62625250501002006</v>
+        <v>0.62625250501002</v>
       </c>
       <c r="J2">
         <f>-I2*E2</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>0.19</v>
       </c>
@@ -1479,306 +1991,307 @@
       </c>
       <c r="E8">
         <f>D8*(B8*1000/(C8*2-B8))/(D8-(B8*1000/(C8*2-B8)))</f>
-        <v>111.98428290766211</v>
+        <v>111.984282907662</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B224-1F09-4905-ACA2-599DDA3A966A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.0833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="72.1666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5833333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="365" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="23" spans="4:4">
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="24" ht="27.6" spans="4:4">
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="365" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
+      <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
+      <c r="E31" s="12" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C32" s="13">
         <v>32</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="E33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" ht="41.4" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1788,133 +2301,135 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AB449-856B-4BEF-8A0C-9B5A628FA79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77CCC1-4EFB-43D9-9367-A192BD7E1B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="90.08203125" customWidth="1"/>
-    <col min="5" max="5" width="19.9140625" customWidth="1"/>
-    <col min="6" max="6" width="29.4140625" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="90.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="29.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="47.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D7" s="8" t="s">
+    <row r="7" ht="22.8" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" ht="409.5" customHeight="1" spans="4:9">
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" ht="22.8" spans="4:6">
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" ht="41.4" spans="4:6">
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" ht="41.4" spans="4:6">
+      <c r="D40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" ht="41.4" spans="4:6">
+      <c r="D41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" ht="41.4" spans="4:6">
+      <c r="D42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="9" t="s">
+    <row r="45" ht="22.8" spans="4:4">
+      <c r="D45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="11" t="s">
+    </row>
+    <row r="46" ht="41.4" spans="4:4">
+      <c r="D46" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D45" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D46" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1"/>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87137D4-5B07-4411-8FD2-524EAACEF242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F86ECD-6DA0-440E-B126-257FFB3995DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>4-20ma</t>
   </si>
@@ -771,6 +771,10 @@
   </si>
   <si>
     <t>室内温度设置低于15度，自动本地控制温度，不再使用pid控制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modbus_recv.fault高8位泵故障码</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -896,18 +900,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1542,7 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="9"/>
@@ -1644,21 +1648,21 @@
       <c r="C31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <v>32</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -1675,9 +1679,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="E33" s="4" t="s">
         <v>49</v>
       </c>
@@ -1692,9 +1696,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
@@ -1761,42 +1765,45 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="236" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/hotter/协议.xlsx
+++ b/hotter/协议.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Hardware\hotter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F86ECD-6DA0-440E-B126-257FFB3995DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -290,6 +286,49 @@
     </r>
   </si>
   <si>
+    <t>设备---&gt;服务端(周期性上传)
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": 45,
+        "In Tem": 26,
+        "Front Pressure": 0.5,
+        "After Pressure": 0.5,
+        "Status": 4
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": 45,
+        "Set In Tem": 23,
+        "Upload Period(second)": 10
+    }
+}
+服务端---&gt;设备（周期下发）
+{
+   "Dev ID":  "866289037465624",
+  "Room Temp": [12, 22, 23, 25]，
+  "Room Humid": [12, 22, 23, 25]
+}服务端---&gt;设备
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Updat Frimware": 1,
+               "Reboot Dev": 1,
+               "Power ctrl": 1,                
+               "Set Out Temp": 45,
+               "Set Room Temp": 23,
+               "Set Upload Period(second)": 13
+     }
+}
+温度传感器---&gt;服务端
+{
+   "Sensor ID":  "866289037465624",
+   "Room Temp": {
+               "Temp": "15"
+     }
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    "Dev ID": "866289037465624",</t>
   </si>
   <si>
@@ -480,6 +519,53 @@
   </si>
   <si>
     <t>温度传感器发布消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">故障状态定义
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+循环泵运行状态
+循环泵故障状态
+补水泵运行状态
+补水泵故障状态
+热泵运行状态
+水箱液位状态
+系统故障</t>
+  </si>
+  <si>
+    <t>系统运行开关
+循环泵手动开关
+热泵设备开关
+补水泵手动开关
+电加热手动开关
+回水压力设定
+热泵1上电
+热泵2上电
+N#热泵上电</t>
+  </si>
+  <si>
+    <t>机房内温度
+循环泵运行时间
+补水泵运行时间
+热泵运行时间
+泵前压力
+泵后压力
+系统供水温度
+系统回水温度</t>
+  </si>
+  <si>
+    <t>mqtt_payload_u.status[DEV_STATUS_INDEX] ：8bit di  20bit ai（传感器故障），全0无故障</t>
+  </si>
+  <si>
+    <t>mqtt_payload_u.status[DEV_PUMP_STATUS_INDEX] 热泵故障状态，全00无故障</t>
+  </si>
+  <si>
+    <t>室内温度设置低于15度，自动本地控制温度，不再使用pid控制</t>
+  </si>
+  <si>
+    <t>modbus_recv.fault高8位泵故障码</t>
   </si>
   <si>
     <t>总体架构</t>
@@ -678,111 +764,18 @@
 例如{v1.0.0,33,31.106.169.131/firmware/}
 2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
   </si>
-  <si>
-    <t>设备---&gt;服务端(周期性上传)
-{
-    "Dev ID": "866289037465624",
-    "Status Data": {
-        "Out Tem": 45,
-        "In Tem": 26,
-        "Front Pressure": 0.5,
-        "After Pressure": 0.5,
-        "Status": 4
-    },
-    "Dev Params": {
-        "Version": "V3.0.1",
-        "Set Out Tem": 45,
-        "Set In Tem": 23,
-        "Upload Period(second)": 10
-    }
-}
-服务端---&gt;设备（周期下发）
-{
-   "Dev ID":  "866289037465624",
-  "Room Temp": [12, 22, 23, 25]，
-  "Room Humid": [12, 22, 23, 25]
-}服务端---&gt;设备
-{
-   "Dev ID":  "866289037465624",
-   "Dev Ctrl": {
-               "Updat Frimware": 1,
-               "Reboot Dev": 1,
-               "Power ctrl": 1,                
-               "Set Out Temp": 45,
-               "Set Room Temp": 23,
-               "Set Upload Period(second)": 13
-     }
-}
-温度传感器---&gt;服务端
-{
-   "Sensor ID":  "866289037465624",
-   "Room Temp": {
-               "Temp": "15"
-     }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统运行开关
-循环泵手动开关
-热泵设备开关
-补水泵手动开关
-电加热手动开关
-回水压力设定
-热泵1上电
-热泵2上电
-N#热泵上电</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">故障状态定义
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-循环泵运行状态
-循环泵故障状态
-补水泵运行状态
-补水泵故障状态
-热泵运行状态
-水箱液位状态
-系统故障</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房内温度
-循环泵运行时间
-补水泵运行时间
-热泵运行时间
-泵前压力
-泵后压力
-系统供水温度
-系统回水温度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mqtt_payload_u.status[DEV_PUMP_STATUS_INDEX] 热泵故障状态，全00无故障</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mqtt_payload_u.status[DEV_STATUS_INDEX] ：8bit di  20bit ai（传感器故障），全0无故障</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>室内温度设置低于15度，自动本地控制温度，不再使用pid控制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>modbus_recv.fault高8位泵故障码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +792,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -806,8 +800,159 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -820,39 +965,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -860,14 +1168,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -886,52 +1436,96 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -947,19 +1541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -989,15 +1577,9 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1046,7 +1628,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1062,19 +1644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,24 +1922,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2">
         <f>49.9*2</f>
         <v>99.8</v>
@@ -1422,14 +1998,14 @@
       </c>
       <c r="I2">
         <f>H2/(F2-E2)</f>
-        <v>0.62625250501002006</v>
+        <v>0.62625250501002</v>
       </c>
       <c r="J2">
         <f>-I2*E2</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>0.19</v>
       </c>
@@ -1462,36 +2038,37 @@
       </c>
       <c r="E8">
         <f>D8*(B8*1000/(C8*2-B8))/(D8-(B8*1000/(C8*2-B8)))</f>
-        <v>111.98428290766201</v>
+        <v>111.984282907662</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.0833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="72.1666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5833333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +2079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1524,7 +2101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +2109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:8">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1542,268 +2119,268 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
       <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="365" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="365" customHeight="1" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
       <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
       <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
       <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
       <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
       <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
       <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="27.6" spans="4:4">
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="14">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="15">
-        <v>32</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="E33" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" ht="41.4" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="E34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="236" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="B49" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" ht="27.6" spans="1:2">
+      <c r="A47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" ht="236" customHeight="1" spans="1:3">
+      <c r="A48" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" ht="27.6" spans="2:2">
+      <c r="B49" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" ht="14" customHeight="1" spans="1:2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1812,133 +2389,135 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="90.08203125" customWidth="1"/>
-    <col min="5" max="5" width="19.9140625" customWidth="1"/>
-    <col min="6" max="6" width="29.4140625" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="90.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="29.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="47.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:4" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="7" ht="22.8" spans="4:4">
       <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" ht="409.5" customHeight="1" spans="4:9">
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" ht="22.8" spans="4:6">
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" ht="41.4" spans="4:6">
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" ht="41.4" spans="4:6">
+      <c r="D40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" ht="41.4" spans="4:6">
+      <c r="D41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" ht="41.4" spans="4:6">
+      <c r="D42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="D39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="45" ht="22.8" spans="4:4">
       <c r="D45" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="42" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" ht="41.4" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4">
       <c r="D49" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>